--- a/biology/Botanique/Zosteraceae/Zosteraceae.xlsx
+++ b/biology/Botanique/Zosteraceae/Zosteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Zosteracées (Zosteraceae) sont une famille de plantes aquatiques. Elle comprend une vingtaine d'espèces réparties en 2 à 3 genres.
-Ce sont, comme la famille voisine des Posidoniacées, des plantes aquatiques marines entièrement submergées, à pollinisation aquatique. La tige est un rhizome rampant, monopodial chez Phyllospadix et Zostera, et sympodial chez Heterozostera[1].
+Ce sont, comme la famille voisine des Posidoniacées, des plantes aquatiques marines entièrement submergées, à pollinisation aquatique. La tige est un rhizome rampant, monopodial chez Phyllospadix et Zostera, et sympodial chez Heterozostera.
 On les rencontre le long des côtes, des zones froides aux zones tropicales. Largement répandues, elles sont cependant absentes de certaines régions.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Zostera qui dérive du grec ancien ζωστήρ zoster signifiant ceinture[2], en référence à la forme des feuilles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Zostera qui dérive du grec ancien ζωστήρ zoster signifiant ceinture, en référence à la forme des feuilles.
 </t>
         </is>
       </c>
@@ -544,16 +558,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Phyllospadix Hook. (1838)
 genre Zostera L. (1753)
-Selon NCBI  (15 avr. 2010)[4], Angiosperm Phylogeny Website                        (19 mai 2010)[5] et DELTA Angio           (15 avr. 2010)[6] :
+Selon NCBI  (15 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010) et DELTA Angio           (15 avr. 2010) :
 genre Heterozostera
 genre Phyllospadix
 genre Zostera
-Selon ITIS      (15 avr. 2010)[7] (qui suit la Classification de Cronquist):
+Selon ITIS      (15 avr. 2010) (qui suit la Classification de Cronquist):
 genre Phyllospadix Hook.
 genre Zostera L.</t>
         </is>
@@ -583,7 +599,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Phyllospadix scouleri
